--- a/xdata/subject.xlsx
+++ b/xdata/subject.xlsx
@@ -4,15 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="11010" windowHeight="4095"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="13440" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:L12"/>
 </workbook>
 </file>
 
@@ -403,7 +401,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -493,32 +491,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/xdata/subject.xlsx
+++ b/xdata/subject.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1200" windowWidth="13440" windowHeight="4545"/>
@@ -10,12 +10,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:L12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>아동/청소년</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,14 +53,22 @@
   </si>
   <si>
     <t>기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUB_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUB_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +117,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -188,6 +200,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -222,6 +235,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -397,92 +411,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
